--- a/20_intermediate_files/overdose_summary_table.xlsx
+++ b/20_intermediate_files/overdose_summary_table.xlsx
@@ -14,15 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Deaths</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>FIPS</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
   <si>
     <t>Population</t>
   </si>
   <si>
     <t>Deaths Per 100,000 People</t>
+  </si>
+  <si>
+    <t>CalculatedDeaths</t>
   </si>
   <si>
     <t>count</t>
@@ -404,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,117 +426,171 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>39819</v>
+      </c>
+      <c r="C2">
+        <v>39819</v>
+      </c>
+      <c r="D2">
+        <v>39819</v>
+      </c>
+      <c r="E2">
+        <v>39819</v>
+      </c>
+      <c r="F2">
+        <v>39819</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>30511.0365654587</v>
+      </c>
+      <c r="C3">
+        <v>2009</v>
+      </c>
+      <c r="D3">
+        <v>100070.0092920465</v>
+      </c>
+      <c r="E3">
+        <v>12.5066937806446</v>
+      </c>
+      <c r="F3">
+        <v>12.38052186142294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>15086.75968991359</v>
+      </c>
+      <c r="C4">
+        <v>3.741704370975745</v>
+      </c>
+      <c r="D4">
+        <v>316386.0302388998</v>
+      </c>
+      <c r="E4">
+        <v>8.228459764040865</v>
+      </c>
+      <c r="F4">
+        <v>38.16859162489131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1001</v>
+      </c>
+      <c r="C5">
+        <v>2003</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>19007</v>
+      </c>
+      <c r="C6">
+        <v>2006</v>
+      </c>
+      <c r="D6">
+        <v>11734.5</v>
+      </c>
+      <c r="E6">
+        <v>8.227687541724906</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>29151</v>
+      </c>
+      <c r="C7">
+        <v>2009</v>
+      </c>
+      <c r="D7">
+        <v>26474</v>
+      </c>
+      <c r="E7">
+        <v>11.50196491900699</v>
+      </c>
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>7970</v>
-      </c>
-      <c r="C2">
-        <v>7933</v>
-      </c>
-      <c r="D2">
-        <v>7933</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>48.72910915934755</v>
-      </c>
-      <c r="C3">
-        <v>380718.5085087609</v>
-      </c>
-      <c r="D3">
-        <v>29.87570632019791</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>74.82500112870449</v>
-      </c>
-      <c r="C4">
-        <v>631496.1009198054</v>
-      </c>
-      <c r="D4">
-        <v>586.6947466430048</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>88</v>
-      </c>
-      <c r="D5">
-        <v>0.8117898952452789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>105237</v>
-      </c>
-      <c r="D6">
-        <v>9.228106695067046</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>194615</v>
-      </c>
-      <c r="D7">
-        <v>13.06428589268457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>46033</v>
+      </c>
+      <c r="C8">
+        <v>2012</v>
+      </c>
+      <c r="D8">
+        <v>68041</v>
+      </c>
+      <c r="E8">
+        <v>15.71633182457846</v>
+      </c>
+      <c r="F8">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>48</v>
-      </c>
-      <c r="C8">
-        <v>433954</v>
-      </c>
-      <c r="D8">
-        <v>19.04425067675105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
+        <v>56045</v>
+      </c>
+      <c r="C9">
+        <v>2015</v>
+      </c>
+      <c r="D9">
+        <v>10085416</v>
+      </c>
+      <c r="E9">
+        <v>126.5522423475441</v>
+      </c>
+      <c r="F9">
         <v>862</v>
-      </c>
-      <c r="C9">
-        <v>10085416</v>
-      </c>
-      <c r="D9">
-        <v>35555.55555555555</v>
       </c>
     </row>
   </sheetData>
